--- a/banks/facile/catalog/PNB_Bank_Catalog.xlsx
+++ b/banks/facile/catalog/PNB_Bank_Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/facile/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E8392D-505F-3C47-B611-A486CC542417}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5ED912-46C4-7143-BE57-93A993196550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,9 @@
     <sheet name="ProductTypesStatusTypesMapping" sheetId="13" r:id="rId15"/>
     <sheet name="GlobalSystemParameter" sheetId="14" r:id="rId16"/>
     <sheet name="ClientCategories" sheetId="21" r:id="rId17"/>
-    <sheet name="Disclaimers" sheetId="17" r:id="rId18"/>
-    <sheet name="FeatureToggle" sheetId="22" r:id="rId19"/>
-    <sheet name="DateIntervalLimits" sheetId="23" r:id="rId20"/>
-    <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId21"/>
+    <sheet name="FeatureToggle" sheetId="22" r:id="rId18"/>
+    <sheet name="DateIntervalLimits" sheetId="23" r:id="rId19"/>
+    <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="617">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1496,27 +1495,6 @@
     <t>Estate</t>
   </si>
   <si>
-    <t>Disclaimers  - real disclaimers entites</t>
-  </si>
-  <si>
-    <t>Disclaimers</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DisclaimerVersion</t>
-  </si>
-  <si>
-    <t>ValidFrom</t>
-  </si>
-  <si>
-    <t>ValidTo</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Powell</t>
   </si>
   <si>
@@ -1796,21 +1774,6 @@
     <t>POPio virtual branch</t>
   </si>
   <si>
-    <t>DisclaimerTypeCode, DisclaimerVersion</t>
-  </si>
-  <si>
-    <t>post-login</t>
-  </si>
-  <si>
-    <t>ver2019</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>statements-electronic-delivery</t>
-  </si>
-  <si>
     <t>customer.account.roles.Business Signer RO</t>
   </si>
   <si>
@@ -1862,9 +1825,6 @@
     <t>support@nymbus.com</t>
   </si>
   <si>
-    <t>DisclaimerTypeCode</t>
-  </si>
-  <si>
     <t>DAILYLIMIT</t>
   </si>
   <si>
@@ -1902,6 +1862,39 @@
   </si>
   <si>
     <t>Bank short name. Used e.g. for direct deposit form</t>
+  </si>
+  <si>
+    <t>atm-locations</t>
+  </si>
+  <si>
+    <t>ATM Location</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>billPay-ipay-external-transfers</t>
+  </si>
+  <si>
+    <t>billPay-ipay-p2p-payments</t>
+  </si>
+  <si>
+    <t>billPay-ipay-bill-payments</t>
+  </si>
+  <si>
+    <t>billPay-ipay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPay 	</t>
+  </si>
+  <si>
+    <t>iPay External transfers</t>
+  </si>
+  <si>
+    <t>iPay  P2P Payments</t>
+  </si>
+  <si>
+    <t>iPay Bill Payments</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2281,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2423,8 +2416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2504,7 +2495,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2538,29 +2528,7 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2579,7 +2547,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3583,22 +3573,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3608,66 +3598,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="113">
         <v>2</v>
       </c>
-      <c r="I8" s="124"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124" t="s">
+      <c r="C9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3685,325 +3675,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="121"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="119"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="119" t="s">
+      <c r="H15" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="118"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="119"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="119" t="s">
+      <c r="H17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="119"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="119" t="s">
+      <c r="H18" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="119"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="119" t="s">
+      <c r="H19" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="119"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="H20" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="119"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="119" t="s">
+      <c r="H21" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="119"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="119" t="s">
+      <c r="H22" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="119"/>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="119" t="s">
+      <c r="H23" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="119"/>
+      <c r="I23" s="118"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="119" t="s">
+      <c r="H24" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="119"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="116" t="s">
+      <c r="H25" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="116"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="116" t="s">
+      <c r="H26" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="116"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="116" t="s">
+      <c r="H27" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="116"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="116" t="s">
+      <c r="C28" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="116" t="s">
+      <c r="H28" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="116"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="116" t="s">
+      <c r="C29" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="116" t="s">
+      <c r="H29" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="116"/>
+      <c r="I29" s="120"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="116" t="s">
+      <c r="C30" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4016,504 +4006,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="116" t="s">
+      <c r="H31" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="116"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="116" t="s">
+      <c r="H32" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="116"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="117"/>
+      <c r="I33" s="122"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="117"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="114"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="114"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="113"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="113"/>
-      <c r="I62" s="113"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="113"/>
-      <c r="I63" s="113"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="113"/>
-      <c r="F64" s="113"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="113"/>
-      <c r="I64" s="113"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4530,6 +4421,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4552,11 +4542,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="103" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -4566,11 +4556,11 @@
       <c r="H1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="32">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="103" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -4580,39 +4570,39 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" ht="16">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="103" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="16">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="32">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="103" t="s">
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -4622,59 +4612,59 @@
       <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="103" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
       <c r="H6" s="51"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="51"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="103" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="51"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
       <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="103" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4684,11 +4674,11 @@
       <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="103" t="s">
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -4698,7 +4688,7 @@
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="103" t="s">
         <v>294</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -4712,7 +4702,7 @@
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="103" t="s">
         <v>296</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -4726,71 +4716,71 @@
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="32">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>593</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80">
+      <c r="A15" s="107"/>
+      <c r="B15" s="107" t="s">
         <v>495</v>
       </c>
-      <c r="B14" s="110" t="s">
-        <v>499</v>
-      </c>
-      <c r="C14" s="110" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>500</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>606</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>607</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>608</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="80">
-      <c r="A15" s="110"/>
-      <c r="B15" s="110" t="s">
-        <v>502</v>
-      </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="109" t="s">
-        <v>503</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>609</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>610</v>
-      </c>
-      <c r="G15" s="109" t="s">
-        <v>611</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>504</v>
+      <c r="C15" s="107"/>
+      <c r="D15" s="106" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>597</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>598</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="51">
         <v>1</v>
       </c>
-      <c r="B17" s="112" t="s">
-        <v>612</v>
-      </c>
-      <c r="C17" s="108">
+      <c r="B17" s="109" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" s="105">
         <v>1</v>
       </c>
       <c r="D17" s="51">
@@ -4806,7 +4796,7 @@
         <v>500000</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5624,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5658,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6644,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6658,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6672,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7157,7 +7147,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="60">
         <v>1000000001</v>
       </c>
       <c r="G17" s="1"/>
@@ -7165,7 +7155,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="50" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -7189,7 +7179,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="50" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -7205,7 +7195,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="60">
         <v>1000000021</v>
       </c>
       <c r="G19" s="1"/>
@@ -7213,7 +7203,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="50" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -7222,16 +7212,16 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -7240,16 +7230,16 @@
         <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="K21" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -7258,16 +7248,16 @@
         <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -7276,16 +7266,16 @@
         <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="K23" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8163,7 +8153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -8338,8 +8328,8 @@
       <c r="A17" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>603</v>
+      <c r="B17" s="76" t="s">
+        <v>591</v>
       </c>
       <c r="D17" s="53">
         <v>1</v>
@@ -8550,7 +8540,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D27" s="53">
         <v>1</v>
@@ -8593,7 +8583,7 @@
         <v>429</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D29" s="53">
         <v>1</v>
@@ -8612,7 +8602,7 @@
       <c r="A30" t="s">
         <v>430</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>431</v>
       </c>
       <c r="D30" s="53">
@@ -8632,8 +8622,8 @@
       <c r="A31" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>514</v>
+      <c r="B31" s="61" t="s">
+        <v>507</v>
       </c>
       <c r="D31" s="53">
         <v>1</v>
@@ -8655,8 +8645,8 @@
       <c r="A32" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="77" t="s">
-        <v>604</v>
+      <c r="B32" s="75" t="s">
+        <v>592</v>
       </c>
       <c r="D32" s="53">
         <v>1</v>
@@ -8678,8 +8668,8 @@
       <c r="A33" t="s">
         <v>436</v>
       </c>
-      <c r="B33" s="77" t="s">
-        <v>604</v>
+      <c r="B33" s="75" t="s">
+        <v>592</v>
       </c>
       <c r="D33" s="53">
         <v>1</v>
@@ -8702,7 +8692,7 @@
         <v>438</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D34" s="53">
         <v>1</v>
@@ -8740,7 +8730,7 @@
         <v>440</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D36" s="53">
         <v>1</v>
@@ -8780,7 +8770,7 @@
         <v>442</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D38" s="53">
         <v>1</v>
@@ -8800,7 +8790,7 @@
         <v>443</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D39" s="53">
         <v>1</v>
@@ -8840,8 +8830,8 @@
       <c r="A41" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B41" s="78" t="s">
-        <v>603</v>
+      <c r="B41" s="76" t="s">
+        <v>591</v>
       </c>
       <c r="D41" s="53">
         <v>1</v>
@@ -8982,10 +8972,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B48" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D48" s="53">
         <v>1</v>
@@ -9000,12 +8990,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -9020,12 +9010,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -9040,15 +9030,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="128" t="s">
-        <v>617</v>
+      <c r="A51" s="110" t="s">
+        <v>604</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D51" s="53">
         <v>1</v>
@@ -9062,8 +9052,8 @@
       <c r="G51" s="53">
         <v>1</v>
       </c>
-      <c r="H51" s="76" t="s">
-        <v>618</v>
+      <c r="H51" s="74" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -9492,28 +9482,28 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="65">
+      <c r="A29" s="63">
         <v>13</v>
       </c>
-      <c r="B29" s="66" t="s">
-        <v>507</v>
+      <c r="B29" s="64" t="s">
+        <v>500</v>
       </c>
       <c r="C29" s="59">
         <v>1</v>
       </c>
-      <c r="D29" s="65">
-        <v>1</v>
-      </c>
-      <c r="E29" s="65"/>
+      <c r="D29" s="63">
+        <v>1</v>
+      </c>
+      <c r="E29" s="63"/>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="66" t="s">
-        <v>506</v>
+      <c r="G29" s="64" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="65"/>
+      <c r="A30" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9522,200 +9512,322 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.5"/>
-    <col min="3" max="3" width="17.5"/>
-    <col min="4" max="4" width="13.33203125"/>
-    <col min="5" max="5" width="12.6640625"/>
-    <col min="6" max="7" width="16.6640625"/>
-    <col min="8" max="1025" width="8.1640625"/>
+    <col min="1" max="1" width="26.83203125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="66" customWidth="1"/>
+    <col min="3" max="3" width="19" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="66" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="66" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="66" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="66" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="66" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625" style="66" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="66" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>484</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="68" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="67"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>583</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="70" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="30" t="s">
-        <v>605</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="56" t="s">
-        <v>584</v>
-      </c>
-      <c r="B17" t="s">
-        <v>585</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>586</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>587</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>585</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="56">
-        <v>1</v>
+      <c r="B13" s="72"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="74" t="s">
+        <v>606</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="66" t="s">
+        <v>609</v>
+      </c>
+      <c r="B21" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18">
+      <c r="A22" s="66" t="s">
+        <v>610</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18">
+      <c r="A23" s="66" t="s">
+        <v>611</v>
+      </c>
+      <c r="B23" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="66" t="s">
+        <v>612</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -9725,267 +9837,529 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="68" customWidth="1"/>
-    <col min="3" max="3" width="19" style="68" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="68" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="68" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="68" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="68" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="68" customWidth="1"/>
-    <col min="10" max="1025" width="8.6640625" style="68" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="68"/>
+    <col min="1" max="1" width="22.33203125" style="79" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="79" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="87" customWidth="1"/>
+    <col min="5" max="5" width="10" style="79" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="79" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="79" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="79" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="79" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>508</v>
-      </c>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="67" t="s">
+      <c r="B1" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="67" t="s">
+      <c r="B2" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="67" t="s">
+      <c r="B3" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="67" t="s">
+      <c r="D4" s="83"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>509</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="69"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="67" t="s">
+      <c r="B5" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="D5" s="80"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="B6" s="81"/>
+      <c r="D6" s="80"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="67" t="s">
+      <c r="B7" s="81"/>
+      <c r="D7" s="80"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="67" t="s">
+      <c r="B8" s="81"/>
+      <c r="D8" s="80"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-    </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="67" t="s">
+      <c r="B9" s="81"/>
+      <c r="D9" s="80"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="72" t="s">
+      <c r="B10" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="D10" s="80"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="72" t="s">
+      <c r="B11" s="80"/>
+      <c r="D11" s="80"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="72" t="s">
+      <c r="B12" s="85"/>
+      <c r="D12" s="80"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="68" t="s">
-        <v>517</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="A17" s="76" t="s">
-        <v>519</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18">
-      <c r="A18" s="76" t="s">
-        <v>579</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="C18" s="76" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18">
-      <c r="A19" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>516</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>582</v>
+      <c r="B13" s="85"/>
+      <c r="D13" s="80"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>531</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>533</v>
+      </c>
+      <c r="I14" s="86" t="s">
+        <v>534</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>535</v>
+      </c>
+      <c r="K14" s="86"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="79">
+        <v>0</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D17" s="79">
+        <v>371</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="79">
+        <v>0</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D18" s="79">
+        <v>371</v>
+      </c>
+      <c r="F18" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H18" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="79">
+        <v>0</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="79">
+        <v>371</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>543</v>
+      </c>
+      <c r="H19" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="79">
+        <v>0</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D20" s="79">
+        <v>371</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H20" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="79">
+        <v>0</v>
+      </c>
+      <c r="B21" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D21" s="79">
+        <v>313</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="79">
+        <v>0</v>
+      </c>
+      <c r="B22" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D22" s="79">
+        <v>313</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="79">
+        <v>0</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="79">
+        <v>313</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>547</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="79">
+        <v>0</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D24" s="79">
+        <v>712</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H24" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="79">
+        <v>0</v>
+      </c>
+      <c r="B25" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" s="79">
+        <v>712</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="79">
+        <v>0</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D26" s="79">
+        <v>712</v>
+      </c>
+      <c r="F26" s="79" t="s">
+        <v>547</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="79">
+        <v>0</v>
+      </c>
+      <c r="B27" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="79">
+        <v>316</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="79">
+        <v>0</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D28" s="79">
+        <v>316</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>547</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="79">
+        <v>0</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D29" s="79">
+        <v>316</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="79">
+        <v>0</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>544</v>
+      </c>
+      <c r="D30" s="79">
+        <v>321</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="79">
+        <v>0</v>
+      </c>
+      <c r="B31" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>537</v>
+      </c>
+      <c r="D31" s="79">
+        <v>321</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="79">
+        <v>0</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D32" s="79">
+        <v>321</v>
+      </c>
+      <c r="F32" s="79" t="s">
+        <v>547</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="79">
+        <v>0</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D33" s="87">
+        <v>833</v>
+      </c>
+      <c r="F33" s="88">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -10082,538 +10456,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:AMK33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" style="81" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="89" customWidth="1"/>
-    <col min="5" max="5" width="10" style="81" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="81" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="81" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="81" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="81" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="89"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="D1" s="82"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="79" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="D2" s="82"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="85"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="79" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="85"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>532</v>
-      </c>
-      <c r="D5" s="82"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="83"/>
-      <c r="D6" s="82"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="D7" s="82"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="79" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="D8" s="82"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="79" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="D9" s="82"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>533</v>
-      </c>
-      <c r="D10" s="82"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="D11" s="82"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="87"/>
-      <c r="D12" s="82"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="D13" s="82"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" s="88" t="s">
-        <v>535</v>
-      </c>
-      <c r="D14" s="88" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>538</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>539</v>
-      </c>
-      <c r="H14" s="88" t="s">
-        <v>540</v>
-      </c>
-      <c r="I14" s="88" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>542</v>
-      </c>
-      <c r="K14" s="88"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="81">
-        <v>0</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D17" s="81">
-        <v>371</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>545</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="81">
-        <v>0</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D18" s="81">
-        <v>371</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H18" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="81">
-        <v>0</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D19" s="81">
-        <v>371</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="81">
-        <v>0</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>547</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D20" s="81">
-        <v>371</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H20" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="81">
-        <v>0</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D21" s="81">
-        <v>313</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H21" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="81">
-        <v>0</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C22" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D22" s="81">
-        <v>313</v>
-      </c>
-      <c r="F22" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H22" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="81">
-        <v>0</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" s="81">
-        <v>313</v>
-      </c>
-      <c r="F23" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="H23" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="81">
-        <v>0</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D24" s="81">
-        <v>712</v>
-      </c>
-      <c r="F24" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H24" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="81">
-        <v>0</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D25" s="81">
-        <v>712</v>
-      </c>
-      <c r="F25" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H25" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="81">
-        <v>0</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D26" s="81">
-        <v>712</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="H26" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="81">
-        <v>0</v>
-      </c>
-      <c r="B27" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C27" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D27" s="81">
-        <v>316</v>
-      </c>
-      <c r="F27" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H27" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="81">
-        <v>0</v>
-      </c>
-      <c r="B28" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C28" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D28" s="81">
-        <v>316</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="H28" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="81">
-        <v>0</v>
-      </c>
-      <c r="B29" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D29" s="81">
-        <v>316</v>
-      </c>
-      <c r="F29" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H29" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="81">
-        <v>0</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="D30" s="81">
-        <v>321</v>
-      </c>
-      <c r="F30" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="H30" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="81">
-        <v>0</v>
-      </c>
-      <c r="B31" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>544</v>
-      </c>
-      <c r="D31" s="81">
-        <v>321</v>
-      </c>
-      <c r="F31" s="81" t="s">
-        <v>548</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="81">
-        <v>0</v>
-      </c>
-      <c r="B32" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D32" s="81">
-        <v>321</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="H32" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="81">
-        <v>0</v>
-      </c>
-      <c r="B33" s="81" t="s">
-        <v>553</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>549</v>
-      </c>
-      <c r="D33" s="89">
-        <v>833</v>
-      </c>
-      <c r="F33" s="90">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H33" s="81" t="s">
-        <v>546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -10623,360 +10465,360 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="89" customWidth="1"/>
-    <col min="4" max="4" width="89.1640625" style="89" customWidth="1"/>
-    <col min="5" max="1020" width="8.1640625" style="89" customWidth="1"/>
-    <col min="1021" max="1021" width="8.83203125" style="89" customWidth="1"/>
-    <col min="1022" max="16384" width="8.83203125" style="89"/>
+    <col min="1" max="1" width="24.83203125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="87" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="87" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="87" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="80"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="83"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="83"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="84" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="80"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="80"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>550</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="89" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="91">
+        <v>100</v>
+      </c>
+      <c r="B17" s="91">
+        <v>0</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="87" t="s">
         <v>555</v>
       </c>
-      <c r="C1" s="82"/>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="82"/>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="85"/>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="86" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="85"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="82"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="82"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="82"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="82"/>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="88" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="91">
+        <v>140</v>
+      </c>
+      <c r="B18" s="91">
+        <v>0</v>
+      </c>
+      <c r="C18" s="87" t="s">
         <v>556</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>557</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="91" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="91">
+        <v>141</v>
+      </c>
+      <c r="B19" s="91">
+        <v>0</v>
+      </c>
+      <c r="C19" s="87" t="s">
         <v>558</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="D19" s="87" t="s">
         <v>559</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="91">
+        <v>146</v>
+      </c>
+      <c r="B20" s="91">
+        <v>0</v>
+      </c>
+      <c r="C20" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="93">
-        <v>100</v>
-      </c>
-      <c r="B17" s="93">
-        <v>0</v>
-      </c>
-      <c r="C17" s="89" t="s">
+      <c r="D20" s="92" t="s">
         <v>561</v>
       </c>
-      <c r="D17" s="89" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="91">
+        <v>148</v>
+      </c>
+      <c r="B21" s="91">
+        <v>0</v>
+      </c>
+      <c r="C21" s="87" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="93">
-        <v>140</v>
-      </c>
-      <c r="B18" s="93">
-        <v>0</v>
-      </c>
-      <c r="C18" s="89" t="s">
+      <c r="D21" s="87" t="s">
         <v>563</v>
       </c>
-      <c r="D18" s="89" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="91">
+        <v>151</v>
+      </c>
+      <c r="B22" s="91">
+        <v>2</v>
+      </c>
+      <c r="C22" s="87" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="93">
-        <v>141</v>
-      </c>
-      <c r="B19" s="93">
-        <v>0</v>
-      </c>
-      <c r="C19" s="89" t="s">
+      <c r="D22" s="87" t="s">
         <v>565</v>
       </c>
-      <c r="D19" s="89" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="91">
+        <v>155</v>
+      </c>
+      <c r="B23" s="91">
+        <v>0</v>
+      </c>
+      <c r="C23" s="87" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="93">
-        <v>146</v>
-      </c>
-      <c r="B20" s="93">
-        <v>0</v>
-      </c>
-      <c r="C20" s="89" t="s">
+      <c r="D23" s="92" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="91">
+        <v>160</v>
+      </c>
+      <c r="B24" s="91">
+        <v>1</v>
+      </c>
+      <c r="C24" s="87" t="s">
         <v>567</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D24" s="87" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="93">
-        <v>148</v>
-      </c>
-      <c r="B21" s="93">
-        <v>0</v>
-      </c>
-      <c r="C21" s="89" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="91">
+        <v>189</v>
+      </c>
+      <c r="B25" s="91">
+        <v>2</v>
+      </c>
+      <c r="C25" s="87" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D25" s="87" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="93">
-        <v>151</v>
-      </c>
-      <c r="B22" s="93">
-        <v>2</v>
-      </c>
-      <c r="C22" s="89" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="91">
+        <v>190</v>
+      </c>
+      <c r="B26" s="91">
+        <v>1</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>567</v>
+      </c>
+      <c r="D26" s="87" t="s">
         <v>571</v>
       </c>
-      <c r="D22" s="89" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="93">
-        <v>155</v>
-      </c>
-      <c r="B23" s="93">
-        <v>0</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>573</v>
-      </c>
-      <c r="D23" s="94" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="93">
-        <v>160</v>
-      </c>
-      <c r="B24" s="93">
-        <v>1</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>574</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="93">
-        <v>189</v>
-      </c>
-      <c r="B25" s="93">
-        <v>2</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>576</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="93">
-        <v>190</v>
-      </c>
-      <c r="B26" s="93">
-        <v>1</v>
-      </c>
-      <c r="C26" s="89" t="s">
-        <v>574</v>
-      </c>
-      <c r="D26" s="89" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="95"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="93"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="93"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="95"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="93"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="95"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="93"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="95"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="93"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="95"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="93"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="93"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="95"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="93"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="95"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="95"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="93"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="95"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="95"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="93"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="95"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="93"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="95"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="95"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="93"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12454,51 +12296,51 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="98" t="s">
-        <v>588</v>
-      </c>
-      <c r="C24" s="99">
-        <v>1</v>
-      </c>
-      <c r="D24" s="100">
-        <v>1</v>
-      </c>
-      <c r="E24" s="98" t="s">
-        <v>589</v>
+      <c r="B24" s="95" t="s">
+        <v>576</v>
+      </c>
+      <c r="C24" s="96">
+        <v>1</v>
+      </c>
+      <c r="D24" s="97">
+        <v>1</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
-      <c r="A25" s="101">
+      <c r="A25" s="98">
         <v>9</v>
       </c>
-      <c r="B25" s="102" t="s">
-        <v>590</v>
-      </c>
-      <c r="C25" s="103">
-        <v>0</v>
-      </c>
-      <c r="D25" s="104">
-        <v>1</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>591</v>
+      <c r="B25" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="100">
+        <v>0</v>
+      </c>
+      <c r="D25" s="101">
+        <v>1</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
-      <c r="A26" s="101">
+      <c r="A26" s="98">
         <v>10</v>
       </c>
-      <c r="B26" s="102" t="s">
-        <v>592</v>
-      </c>
-      <c r="C26" s="103">
-        <v>0</v>
-      </c>
-      <c r="D26" s="104">
-        <v>1</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>593</v>
+      <c r="B26" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="C26" s="100">
+        <v>0</v>
+      </c>
+      <c r="D26" s="101">
+        <v>1</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -12762,49 +12604,49 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="105">
+      <c r="A25" s="102">
         <v>9</v>
       </c>
-      <c r="B25" s="105">
-        <v>0</v>
-      </c>
-      <c r="C25" s="105">
-        <v>1</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>595</v>
+      <c r="B25" s="102">
+        <v>0</v>
+      </c>
+      <c r="C25" s="102">
+        <v>1</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="105">
+      <c r="A26" s="102">
         <v>10</v>
       </c>
-      <c r="B26" s="105">
-        <v>0</v>
-      </c>
-      <c r="C26" s="105">
-        <v>1</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>596</v>
+      <c r="B26" s="102">
+        <v>0</v>
+      </c>
+      <c r="C26" s="102">
+        <v>1</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="105">
+      <c r="A27" s="102">
         <v>11</v>
       </c>
-      <c r="B27" s="105">
-        <v>0</v>
-      </c>
-      <c r="C27" s="105">
-        <v>1</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>597</v>
+      <c r="B27" s="102">
+        <v>0</v>
+      </c>
+      <c r="C27" s="102">
+        <v>1</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12818,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -13882,7 +13724,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:25" s="62" customFormat="1">
+    <row r="17" spans="1:25" s="60" customFormat="1">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -13900,10 +13742,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -13924,10 +13766,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -13963,10 +13805,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14891,8 +14733,8 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="64" customFormat="1">
-      <c r="A17" s="62">
+    <row r="17" spans="1:26" s="62" customFormat="1">
+      <c r="A17" s="60">
         <v>1000000001</v>
       </c>
       <c r="B17" s="45">
@@ -14903,29 +14745,29 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
+        <v>588</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1">
@@ -14939,7 +14781,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="26" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -14964,7 +14806,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="62">
+      <c r="A19" s="60">
         <v>1000000021</v>
       </c>
       <c r="B19" s="46">
@@ -14975,7 +14817,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="26" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -15637,7 +15479,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -15645,7 +15487,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -15669,7 +15511,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -15701,7 +15543,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -15729,7 +15571,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/facile/catalog/PNB_Bank_Catalog.xlsx
+++ b/banks/facile/catalog/PNB_Bank_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/facile/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5ED912-46C4-7143-BE57-93A993196550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54408289-4C9E-A443-A03A-0E1552327E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35220" windowHeight="12300" tabRatio="826" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -1495,9 +1495,6 @@
     <t>Estate</t>
   </si>
   <si>
-    <t>Powell</t>
-  </si>
-  <si>
     <t>OHIO</t>
   </si>
   <si>
@@ -1567,12 +1564,6 @@
     <t>EN=English name</t>
   </si>
   <si>
-    <t>1-888-597-7137</t>
-  </si>
-  <si>
-    <t>9961 Brewster LN</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -1822,9 +1813,6 @@
     <t>066016944</t>
   </si>
   <si>
-    <t>support@nymbus.com</t>
-  </si>
-  <si>
     <t>DAILYLIMIT</t>
   </si>
   <si>
@@ -1895,6 +1883,18 @@
   </si>
   <si>
     <t>iPay Bill Payments</t>
+  </si>
+  <si>
+    <t>facile@nymbus.support</t>
+  </si>
+  <si>
+    <t>1-833-682-3827</t>
+  </si>
+  <si>
+    <t>PO Box  1437</t>
+  </si>
+  <si>
+    <t>WESTERVILLE</t>
   </si>
 </sst>
 </file>
@@ -2529,6 +2529,29 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2546,29 +2569,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3573,22 +3573,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3598,66 +3598,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="113">
+      <c r="H8" s="122">
         <v>2</v>
       </c>
-      <c r="I8" s="113"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="113" t="s">
+      <c r="C9" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3675,325 +3675,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="117" t="s">
+      <c r="H13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="117"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="118" t="s">
+      <c r="H14" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="118"/>
+      <c r="I14" s="117"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="118" t="s">
+      <c r="H15" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="118"/>
+      <c r="I15" s="117"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="118" t="s">
+      <c r="H17" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="118"/>
+      <c r="I17" s="117"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="118"/>
+      <c r="I18" s="117"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="H19" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="118"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="118" t="s">
+      <c r="H20" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="118"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="119" t="s">
+      <c r="C21" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="118" t="s">
+      <c r="H21" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="118"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="118" t="s">
+      <c r="H22" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="118"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="118" t="s">
+      <c r="C23" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="118" t="s">
+      <c r="H23" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="118"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="118"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="120"/>
+      <c r="I25" s="114"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="120" t="s">
+      <c r="H26" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="120"/>
+      <c r="I26" s="114"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="120" t="s">
+      <c r="H27" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="120"/>
+      <c r="I27" s="114"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="120" t="s">
+      <c r="H28" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="120"/>
+      <c r="I28" s="114"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="120" t="s">
+      <c r="C29" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="120" t="s">
+      <c r="H29" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="120"/>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4006,405 +4006,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="120" t="s">
+      <c r="C31" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="120" t="s">
+      <c r="H31" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="120"/>
+      <c r="I31" s="114"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="120" t="s">
+      <c r="H32" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="120"/>
+      <c r="I32" s="114"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="122" t="s">
+      <c r="H33" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="122"/>
+      <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="122"/>
+      <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="120"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="120"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="120"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="120"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="114"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="120"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="120"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
+      <c r="H50" s="114"/>
+      <c r="I50" s="114"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="112"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="124"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="124"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="124"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="124"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="124"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="124"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="124"/>
+      <c r="H64" s="111"/>
+      <c r="I64" s="111"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="124"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4421,105 +4520,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4546,7 +4546,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -4560,7 +4560,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -4602,7 +4602,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -4664,7 +4664,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
@@ -4678,7 +4678,7 @@
         <v>293</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
@@ -4717,50 +4717,50 @@
     </row>
     <row r="14" spans="1:8" ht="32">
       <c r="A14" s="107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" s="107" t="s">
         <v>349</v>
       </c>
       <c r="D14" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>589</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>591</v>
+      </c>
+      <c r="H14" s="107" t="s">
         <v>493</v>
-      </c>
-      <c r="E14" s="106" t="s">
-        <v>593</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>594</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>595</v>
-      </c>
-      <c r="H14" s="107" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="80">
       <c r="A15" s="107"/>
       <c r="B15" s="107" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C15" s="107"/>
       <c r="D15" s="106" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>592</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>593</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>594</v>
+      </c>
+      <c r="H15" s="106" t="s">
         <v>496</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>596</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>597</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>598</v>
-      </c>
-      <c r="H15" s="106" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C17" s="105">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>500000</v>
       </c>
       <c r="H17" s="51" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5648,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6648,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6662,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7155,7 +7155,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="50" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -7179,7 +7179,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="50" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -7203,7 +7203,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="50" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -7212,16 +7212,16 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -7230,16 +7230,16 @@
         <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K21" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -7248,16 +7248,16 @@
         <v>180</v>
       </c>
       <c r="C22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -7266,16 +7266,16 @@
         <v>181</v>
       </c>
       <c r="C23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
         <v>517</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>520</v>
-      </c>
       <c r="K23" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -8153,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8329,7 +8329,7 @@
         <v>406</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D17" s="53">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D27" s="53">
         <v>1</v>
@@ -8583,7 +8583,7 @@
         <v>429</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D29" s="53">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>432</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="D31" s="53">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>434</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="D32" s="53">
         <v>1</v>
@@ -8669,7 +8669,7 @@
         <v>436</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="D33" s="53">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>438</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>508</v>
+        <v>615</v>
       </c>
       <c r="D34" s="53">
         <v>1</v>
@@ -8730,7 +8730,7 @@
         <v>440</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>483</v>
+        <v>616</v>
       </c>
       <c r="D36" s="53">
         <v>1</v>
@@ -8750,7 +8750,7 @@
         <v>441</v>
       </c>
       <c r="B37" s="59">
-        <v>43035</v>
+        <v>43086</v>
       </c>
       <c r="D37" s="53">
         <v>1</v>
@@ -8770,7 +8770,7 @@
         <v>442</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D38" s="53">
         <v>1</v>
@@ -8790,7 +8790,7 @@
         <v>443</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D39" s="53">
         <v>1</v>
@@ -8831,7 +8831,7 @@
         <v>446</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D41" s="53">
         <v>1</v>
@@ -8972,10 +8972,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B48" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D48" s="53">
         <v>1</v>
@@ -8990,12 +8990,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -9010,12 +9010,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -9030,15 +9030,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
       <c r="A51" s="110" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D51" s="53">
         <v>1</v>
@@ -9053,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="74" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -9486,7 +9486,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C29" s="59">
         <v>1</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9515,7 +9515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9539,7 +9539,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I1" s="67"/>
     </row>
@@ -9548,7 +9548,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -9593,7 +9593,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -9660,7 +9660,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -9713,10 +9713,10 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="73" t="s">
         <v>503</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>504</v>
       </c>
       <c r="C14" s="73" t="s">
         <v>300</v>
@@ -9725,109 +9725,109 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="73"/>
       <c r="B15" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="73" t="s">
         <v>505</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="66" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="74" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="74" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="74" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="74" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18">
       <c r="A21" s="66" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18">
       <c r="A22" s="66" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18">
       <c r="A23" s="66" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="66" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -9841,7 +9841,7 @@
   <dimension ref="A1:AMK33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9865,7 +9865,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D1" s="80"/>
     </row>
@@ -9874,7 +9874,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D2" s="80"/>
     </row>
@@ -9901,7 +9901,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D5" s="80"/>
     </row>
@@ -9938,7 +9938,7 @@
         <v>291</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D10" s="80"/>
     </row>
@@ -9968,31 +9968,31 @@
         <v>352</v>
       </c>
       <c r="B14" s="86" t="s">
+        <v>524</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>525</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="86" t="s">
         <v>527</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="F14" s="86" t="s">
         <v>528</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="G14" s="86" t="s">
         <v>529</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="H14" s="86" t="s">
         <v>530</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="I14" s="86" t="s">
         <v>531</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="J14" s="86" t="s">
         <v>532</v>
-      </c>
-      <c r="H14" s="86" t="s">
-        <v>533</v>
-      </c>
-      <c r="I14" s="86" t="s">
-        <v>534</v>
-      </c>
-      <c r="J14" s="86" t="s">
-        <v>535</v>
       </c>
       <c r="K14" s="86"/>
     </row>
@@ -10027,19 +10027,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D17" s="79">
         <v>371</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10047,19 +10047,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D18" s="79">
         <v>371</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -10067,19 +10067,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D19" s="79">
         <v>371</v>
       </c>
       <c r="F19" s="79" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H19" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10087,19 +10087,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C20" s="79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D20" s="79">
         <v>371</v>
       </c>
       <c r="F20" s="79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H20" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -10107,19 +10107,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C21" s="79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D21" s="79">
         <v>313</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H21" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -10127,19 +10127,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D22" s="79">
         <v>313</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -10147,19 +10147,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C23" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D23" s="79">
         <v>313</v>
       </c>
       <c r="F23" s="79" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10167,19 +10167,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D24" s="79">
         <v>712</v>
       </c>
       <c r="F24" s="79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H24" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D25" s="79">
         <v>712</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -10207,19 +10207,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D26" s="79">
         <v>712</v>
       </c>
       <c r="F26" s="79" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H26" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -10227,19 +10227,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C27" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D27" s="79">
         <v>316</v>
       </c>
       <c r="F27" s="79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -10247,19 +10247,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C28" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D28" s="79">
         <v>316</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C29" s="79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D29" s="79">
         <v>316</v>
       </c>
       <c r="F29" s="79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -10287,19 +10287,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C30" s="79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D30" s="79">
         <v>321</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -10307,19 +10307,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D31" s="79">
         <v>321</v>
       </c>
       <c r="F31" s="79" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -10327,19 +10327,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D32" s="79">
         <v>321</v>
       </c>
       <c r="F32" s="79" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -10347,10 +10347,10 @@
         <v>0</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C33" s="79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D33" s="87">
         <v>833</v>
@@ -10359,7 +10359,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10479,7 +10479,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C1" s="80"/>
     </row>
@@ -10584,10 +10584,10 @@
         <v>349</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D14" s="86" t="s">
         <v>300</v>
@@ -10595,10 +10595,10 @@
     </row>
     <row r="15" spans="1:4" ht="16">
       <c r="A15" s="89" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="89" t="s">
@@ -10608,7 +10608,7 @@
     <row r="16" spans="1:4" ht="16">
       <c r="A16" s="90"/>
       <c r="B16" s="90" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C16" s="90"/>
       <c r="D16" s="90" t="s">
@@ -10623,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -10637,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -10651,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16">
@@ -10665,10 +10665,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="87" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D20" s="92" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -10693,10 +10693,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16">
@@ -10707,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D23" s="92" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -10721,10 +10721,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="87" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10735,10 +10735,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -10749,10 +10749,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12297,7 +12297,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C24" s="96">
         <v>1</v>
@@ -12306,7 +12306,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="95" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
@@ -12314,7 +12314,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="99" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C25" s="100">
         <v>0</v>
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
@@ -12331,7 +12331,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="99" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C26" s="100">
         <v>0</v>
@@ -12340,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -12604,7 +12604,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12618,7 +12618,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="102" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -12646,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="102" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12660,7 +12660,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -13742,10 +13742,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -13766,10 +13766,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -13805,10 +13805,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -14781,7 +14781,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="26" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="26" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -15479,7 +15479,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -15487,7 +15487,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -15511,7 +15511,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -15543,7 +15543,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -15571,7 +15571,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">

--- a/banks/facile/catalog/PNB_Bank_Catalog.xlsx
+++ b/banks/facile/catalog/PNB_Bank_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/facile/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54408289-4C9E-A443-A03A-0E1552327E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DFDC90-8C16-194A-BAC1-967A3BB19E52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35220" windowHeight="12300" tabRatio="826" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35220" windowHeight="12300" tabRatio="826" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="DateIntervalLimits" sheetId="23" r:id="rId19"/>
     <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -2529,29 +2529,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2569,6 +2546,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3573,22 +3573,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3598,66 +3598,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="122">
+      <c r="H8" s="113">
         <v>2</v>
       </c>
-      <c r="I8" s="122"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3675,325 +3675,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="119" t="s">
+      <c r="H13" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="119"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="117" t="s">
+      <c r="H14" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="117"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="117"/>
+      <c r="I15" s="118"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="117" t="s">
+      <c r="H16" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="117"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="117"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="117" t="s">
+      <c r="H18" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="117"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="117"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="117" t="s">
+      <c r="H20" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="117"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="117" t="s">
+      <c r="H21" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="117"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="117" t="s">
+      <c r="H22" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="117"/>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="117"/>
+      <c r="I23" s="118"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="117"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="114"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="114" t="s">
+      <c r="H26" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="114"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="114"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="114"/>
+      <c r="I28" s="120"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="H29" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="114"/>
+      <c r="I29" s="120"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4006,504 +4006,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="114" t="s">
+      <c r="H31" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="114"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="C32" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="114" t="s">
+      <c r="H32" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="114"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="115" t="s">
+      <c r="H33" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="115"/>
+      <c r="I33" s="122"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="115" t="s">
+      <c r="H34" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="115"/>
+      <c r="I34" s="122"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="114"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="114"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="114"/>
-      <c r="I48" s="114"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="114"/>
-      <c r="I49" s="114"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="114"/>
-      <c r="I50" s="114"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="112"/>
-      <c r="I51" s="112"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="112"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="112"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
+      <c r="C58" s="124"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="123"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="124"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="124"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="124"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="124"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="124"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="111"/>
-      <c r="D63" s="111"/>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="124"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="124"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="124"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="111"/>
-      <c r="I64" s="111"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="124"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4520,6 +4421,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4531,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5059,7 +5059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -6828,7 +6828,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8153,8 +8153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9516,7 +9516,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A16" sqref="A16:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
